--- a/Data/Inflation.xlsx
+++ b/Data/Inflation.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miUYVJ0QSPFlx1SB9168q0xSaJuVQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhU88+tzpRzJiXmR4ppidsP3J1nNA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Question</t>
   </si>
@@ -42,7 +42,7 @@
 </t>
   </si>
   <si>
-    <t>04/15/2022-04/20/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022</t>
+    <t>04/15/2022-04/20/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022</t>
   </si>
   <si>
     <t>Which of the following items have become more expensive? Select all that apply.</t>
@@ -59,10 +59,41 @@
 • Not Listed (please specify)</t>
   </si>
   <si>
+    <t>04/15/2022-04/20/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022</t>
+  </si>
+  <si>
+    <t>• Food
+• Housing
+• Utilities   
+• Health care (e.g., medication)
+• Child care
+• Transportation (gas for my car, bus/train fares, etc.)
+• Baby items (e.g., formula, diapers)
+• Household items
+• Not Listed (please specify)</t>
+  </si>
+  <si>
+    <t>10/05/2022-10/12/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are you reducing the amount you purchase or use of any items below, due to increased costs? Select all that apply </t>
   </si>
   <si>
-    <t>04/15/2022-04/20/2022 06/02/2022-06/09/2022  07/08/2022-07/15/2022 08/02/2022-08/11/2022</t>
+    <t>04/15/2022-04/20/2022 06/02/2022-06/09/2022  07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022</t>
+  </si>
+  <si>
+    <t>Are you reducing the amount you purchase or use of any items below, due to increased costs?</t>
+  </si>
+  <si>
+    <t>• Food
+• Housing
+• Utilities   
+• Health care (e.g., medication)
+• Child care
+• Transportation (gas for my car, bus/train fares, etc.)
+• Baby items (e.g., formula, diapers)
+• Household items
+• Not Listed (please specify)</t>
   </si>
   <si>
     <t>How has the increased costs of everyday items affected the decisions you make for your household?</t>
@@ -157,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -174,8 +205,14 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -491,7 +528,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -517,15 +554,15 @@
     </row>
     <row r="4" ht="242.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -549,17 +586,17 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" ht="169.5" customHeight="1">
+    <row r="5" ht="242.25" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -583,12 +620,18 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" ht="102.0" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="1"/>
+    <row r="6" ht="169.5" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -611,12 +654,18 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" ht="153.0" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
+    <row r="7" ht="169.5" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -639,8 +688,8 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" ht="153.0" customHeight="1">
-      <c r="A8" s="3"/>
+    <row r="8" ht="102.0" customHeight="1">
+      <c r="A8" s="10"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -695,11 +744,11 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" ht="102.0" customHeight="1">
+    <row r="10" ht="153.0" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -723,11 +772,11 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" ht="169.5" customHeight="1">
+    <row r="11" ht="153.0" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -755,7 +804,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -779,12 +828,12 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" ht="76.5" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+    <row r="13" ht="169.5" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -807,12 +856,12 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" ht="160.5" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+    <row r="14" ht="102.0" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -835,8 +884,8 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2"/>
+    <row r="15" ht="76.5" customHeight="1">
+      <c r="A15" s="10"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -863,9 +912,9 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+    <row r="16" ht="160.5" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -28443,6 +28492,62 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
+    <row r="1002" ht="15.75" customHeight="1">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Data/Inflation.xlsx
+++ b/Data/Inflation.xlsx
@@ -42,7 +42,7 @@
 </t>
   </si>
   <si>
-    <t>04/15/2022-04/20/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022</t>
+    <t>04/15/2022-04/20/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022</t>
   </si>
   <si>
     <t>Which of the following items have become more expensive? Select all that apply.</t>
@@ -73,7 +73,7 @@
 • Not Listed (please specify)</t>
   </si>
   <si>
-    <t>10/05/2022-10/12/2022</t>
+    <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022</t>
   </si>
   <si>
     <t xml:space="preserve">Are you reducing the amount you purchase or use of any items below, due to increased costs? Select all that apply </t>

--- a/Data/Inflation.xlsx
+++ b/Data/Inflation.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhU88+tzpRzJiXmR4ppidsP3J1nNA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgEKJqk7PJBy4553X7hYI9wg6D0cg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -41,7 +41,7 @@
 • Unsure </t>
   </si>
   <si>
-    <t>04/15/2022-04/20/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>04/15/2022-04/20/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023</t>
   </si>
   <si>
     <t>Which of the following items have become more expensive? Select all that apply.</t>
@@ -75,6 +75,20 @@
     <t>10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
   </si>
   <si>
+    <t>• Food
+• Housing
+• Utilities (electric, water, trash, etc.)
+• Health care (e.g., medication)
+• Child care
+• Transportation (gas for my car, bus/train fares, etc.) 
+• Baby items (e.g., formula, diapers)
+• Household items
+• Not Listed (please specify)</t>
+  </si>
+  <si>
+    <t>02/09/2023-02/15/2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are you reducing the amount you purchase or use of any items below, due to increased costs? Select all that apply </t>
   </si>
   <si>
@@ -86,7 +100,7 @@
   <si>
     <t>• Food
 • Housing
-• Utilities   
+• Utilities (electric, water, trash, etc.)
 • Health care (e.g., medication)
 • Child care
 • Transportation (gas for my car, bus/train fares, etc.)
@@ -589,11 +603,11 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="242.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -622,17 +636,17 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" ht="169.5" customHeight="1">
-      <c r="A6" s="8" t="s">
+    <row r="6" ht="242.25" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -657,16 +671,16 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="169.5" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -690,12 +704,18 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" ht="102.0" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="1"/>
+    <row r="8" ht="169.5" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -718,12 +738,18 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" ht="153.0" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
+    <row r="9" ht="169.5" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -746,8 +772,8 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" ht="153.0" customHeight="1">
-      <c r="A10" s="3"/>
+    <row r="10" ht="102.0" customHeight="1">
+      <c r="A10" s="10"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -802,11 +828,11 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" ht="102.0" customHeight="1">
+    <row r="12" ht="153.0" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -830,11 +856,11 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" ht="169.5" customHeight="1">
+    <row r="13" ht="153.0" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -886,12 +912,12 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" ht="76.5" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+    <row r="15" ht="169.5" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -914,12 +940,12 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" ht="160.5" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+    <row r="16" ht="102.0" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -942,8 +968,8 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="12"/>
+    <row r="17" ht="76.5" customHeight="1">
+      <c r="A17" s="10"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -970,9 +996,9 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+    <row r="18" ht="160.5" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -28550,6 +28576,62 @@
       <c r="Y1002" s="2"/>
       <c r="Z1002" s="2"/>
     </row>
+    <row r="1003" ht="15.75" customHeight="1">
+      <c r="A1003" s="12"/>
+      <c r="B1003" s="12"/>
+      <c r="C1003" s="12"/>
+      <c r="D1003" s="12"/>
+      <c r="E1003" s="12"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+    </row>
+    <row r="1004" ht="15.75" customHeight="1">
+      <c r="A1004" s="12"/>
+      <c r="B1004" s="12"/>
+      <c r="C1004" s="12"/>
+      <c r="D1004" s="12"/>
+      <c r="E1004" s="12"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Data/Inflation.xlsx
+++ b/Data/Inflation.xlsx
@@ -112,7 +112,7 @@
     <t>How has the increased costs of everyday items affected the decisions you make for your household?</t>
   </si>
   <si>
-    <t>[Free Response]</t>
+    <t>Open ended response</t>
   </si>
 </sst>
 </file>
@@ -742,7 +742,7 @@
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1"/>

--- a/Data/Inflation.xlsx
+++ b/Data/Inflation.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgEKJqk7PJBy4553X7hYI9wg6D0cg=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="7sVCpb5+iRSS8zxa7Xgq8UxhuO4LtvyMNFTa3OJzhzE="/>
     </ext>
   </extLst>
 </workbook>
@@ -41,7 +41,7 @@
 • Unsure </t>
   </si>
   <si>
-    <t>04/15/2022-04/20/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023</t>
+    <t>04/15/2022-04/20/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>Which of the following items have become more expensive? Select all that apply.</t>
@@ -86,7 +86,7 @@
 • Not Listed (please specify)</t>
   </si>
   <si>
-    <t>02/09/2023-02/15/2023</t>
+    <t>02/09/2023-02/15/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Are you reducing the amount you purchase or use of any items below, due to increased costs? Select all that apply </t>

--- a/Data/Inflation.xlsx
+++ b/Data/Inflation.xlsx
@@ -41,7 +41,7 @@
 • Unsure </t>
   </si>
   <si>
-    <t>04/15/2022-04/20/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023</t>
+    <t>04/15/2022-04/20/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t>Which of the following items have become more expensive? Select all that apply.</t>
@@ -86,7 +86,7 @@
 • Not Listed (please specify)</t>
   </si>
   <si>
-    <t>02/09/2023-02/15/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023</t>
+    <t>02/09/2023-02/15/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Are you reducing the amount you purchase or use of any items below, due to increased costs? Select all that apply </t>

--- a/Data/Inflation.xlsx
+++ b/Data/Inflation.xlsx
@@ -41,7 +41,7 @@
 • Unsure </t>
   </si>
   <si>
-    <t>04/15/2022-04/20/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023</t>
+    <t>04/15/2022-04/20/2022 06/02/2022-06/09/2022 07/08/2022-07/15/2022 08/02/2022-08/11/2022 09/08/2022-09/15/2022 10/05/2022-10/12/2022 11/08/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/09/2023-02/15/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t>Which of the following items have become more expensive? Select all that apply.</t>
@@ -86,7 +86,7 @@
 • Not Listed (please specify)</t>
   </si>
   <si>
-    <t>02/09/2023-02/15/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023</t>
+    <t>02/09/2023-02/15/2023 04/05/2023-04/13/2023 06/07/2023-06/14/2023 08/02/2023-08/09/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Are you reducing the amount you purchase or use of any items below, due to increased costs? Select all that apply </t>
